--- a/Proyectos/2015/12/P1399 - ANCCON, AEAPAQ, Luz Angélica Carrizosa_OC/Cierre/Encuesta_satisfacción.xlsx
+++ b/Proyectos/2015/12/P1399 - ANCCON, AEAPAQ, Luz Angélica Carrizosa_OC/Cierre/Encuesta_satisfacción.xlsx
@@ -8513,7 +8513,7 @@
       </c>
       <c r="C8" s="105">
         <f>EncuestaCliente!B15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="105"/>
       <c r="E8" s="105"/>
@@ -16772,7 +16772,7 @@
   <dimension ref="A1:BR97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17241,7 +17241,9 @@
       <c r="A8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="39">
+        <v>5</v>
+      </c>
       <c r="C8" s="40"/>
       <c r="D8" s="41"/>
       <c r="E8" s="42"/>
@@ -17314,7 +17316,9 @@
       <c r="A9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="39">
+        <v>5</v>
+      </c>
       <c r="C9" s="40"/>
       <c r="D9" s="21"/>
       <c r="E9" s="42"/>
@@ -17387,7 +17391,9 @@
       <c r="A10" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="39">
+        <v>5</v>
+      </c>
       <c r="C10" s="40"/>
       <c r="D10" s="30"/>
       <c r="E10" s="36"/>
@@ -17461,7 +17467,9 @@
       <c r="A11" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="39">
+        <v>5</v>
+      </c>
       <c r="C11" s="40"/>
       <c r="D11" s="21"/>
       <c r="E11" s="42"/>
@@ -17534,7 +17542,9 @@
       <c r="A12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="39">
+        <v>5</v>
+      </c>
       <c r="C12" s="40"/>
       <c r="D12" s="21"/>
       <c r="E12" s="42"/>
@@ -17607,7 +17617,9 @@
       <c r="A13" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="39">
+        <v>5</v>
+      </c>
       <c r="C13" s="40"/>
       <c r="D13" s="21"/>
       <c r="E13" s="42"/>
@@ -17680,7 +17692,9 @@
       <c r="A14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="39">
+        <v>5</v>
+      </c>
       <c r="C14" s="40"/>
       <c r="D14" s="21"/>
       <c r="E14" s="42"/>
@@ -17753,7 +17767,7 @@
       <c r="A15" s="21"/>
       <c r="B15" s="44">
         <f>SUM(B8:B14)/35</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="45"/>
       <c r="D15" s="21"/>
